--- a/MEDIA/_2281_001_會計科目餘額明細.xlsx
+++ b/MEDIA/_2281_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2281_001_2020-09-30~2020-10-11)</t>
+          <t>森邦(股)會計科目餘額明細(_2281_001_2020-07-01~2020-09-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>9349800</v>
+        <v>561000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20200706</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖#105807-10906台北展NO.68-陳國玄/詹怡如</t>
+          <t>沖#105807-10906台北展NO.99-呂玥萱    </t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -452,11 +452,11 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9349300</v>
+        <v>560500</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109414</t>
+          <t>105886</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20200706</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖#95230-10810台北展NO.94-談奕寧     </t>
+          <t>沖#105807-10906台北展NO.156-簡得群   </t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -493,11 +493,11 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9348800</v>
+        <v>560000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109414</t>
+          <t>105886</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20200706</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖#105807-10906台北展NO.5-吳小姐     </t>
+          <t>沖#105807-10906台北展NO.46-鄭力銘/楊景程</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -534,11 +534,11 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9348300</v>
+        <v>559500</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109414</t>
+          <t>105886</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20200707</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖#105807-10906台北展NO.148-王榮權   </t>
+          <t>10810台北展NO.64-鐘玉純-板橋新民 工程款91萬 </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-910000</v>
       </c>
       <c r="G7" t="n">
-        <v>9347800</v>
+        <v>1469500</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109414</t>
+          <t>105992</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20200710</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖#109743-10906台北展NO.64-于海珍    </t>
+          <t>蔡志明108年台北春季展編號121彭于秦退訂金       </t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -616,14 +616,5344 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9347300</v>
+        <v>1469000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109743</t>
+          <t>106033</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10906台北展NO.50-林哲彥/劉麗萍 代尋2萬    </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1489000</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>106170</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.116-郭杏言   </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1488500</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沖105807-10906北展NO43林宏斌(正確-林弘斌)</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1488000</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.93-陳昀歆    </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1487500</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.66-張晟     </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>500</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1487000</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>蔡志明108年台北春季展編號33號黃嘉烽退訂金       </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1486500</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>106033</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.12-王德生    </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1486000</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.34-高賢懿    </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1485500</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.39-趙淳汝    </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1485000</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>106098</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20200710</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>阮煌文109年台北夏季展-編號44黃懷民-現場退訂金    </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1484500</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>106173</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10906月台北展NO153盧君宜 代尋2萬        </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1504500</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>106224</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10906月台北展NO.110王芳葦 代尋2萬       </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1524500</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>106224</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10902台北展NO50張書維/游冠琳-蘆洲長安(張保全匯)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-800000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2324500</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>106224</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10906台北展NO.117-蕭惠文(李惠如匯)代尋2萬  </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2344500</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>106224</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10906月台北展NO80 李佳蓉 代尋2萬        </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2364500</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>106224</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20200714</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10906台北展NO.65-陳永淯/吳楚雲/梁詠晴-竹北嘉興</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-59500</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2424000</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>106299</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20200715</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10902台北展NO9-葉婕如/林鴻吉/淑芳-竹北六家嘉豐 </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-300000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2724000</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>106348</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20200715</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10906台北展NO.49-江浚懿  代尋2萬       </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2744000</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>106348</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20200716</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10906台北展NO.137-林庭妤 代尋2萬元      </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2764000</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>106426</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沖#101014-10902台北展NO63-盧又裕     </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>500</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2763500</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.112-房涵興   </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>500</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2763000</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.87-奚嘉璐    </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>500</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2762500</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.36-許欣榕    </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>500</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2762000</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.81-陳建銘    </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>500</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2761500</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.62-林月美    </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>500</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2761000</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.154-楊家驜   </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>500</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2760500</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.22-黃志光    </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>500</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.76-王品雯    </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>500</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2759500</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>106346</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20200720</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10810台北展NO.117-林漢威-中和自立 工程分期  </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2769500</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>106571</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20200720</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10906台北展NO.13-秦月泙-板橋三民秦承平-6萬  </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2829500</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>106546</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20200721</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10906台北展NO.41-藍義淵 代尋2萬元       </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2849500</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>106595</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10903台北展NO46胡雅雯-平鎮廣泰暫收4       </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2889500</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>106651</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.18-龐世傑    </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>500</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2889000</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.28-莊馥甄    </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>500</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2888500</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.45-朱聖宏    </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>500</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2888000</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.91-呂芷澄    </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>500</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2887500</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.67-呂潔穎    </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>500</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2887000</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20200722</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.19-陳宏傑    </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>500</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2886500</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>106643</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20200723</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10906台北展NO.26-王姵雯 代尋2萬        </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2906500</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>106723</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20200724</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.74-黃淑雯-正確婌</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>500</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2906000</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>106739</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20200724</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>阮煌文台北夏季加盟展-NO.129李介華-退訂       </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2905500</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>106743</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20200724</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>任宇晨台北夏季加盟展-151號-楊巧卉-退訂        </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2905000</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>106644</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20200724</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>黃隆玄7/17夏季展No56姜元馥+No69黃美妍-退訂  </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2904000</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>106644</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20200724</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>阮煌文台北夏季加盟展-NO.128唐韶蔓-退訂       </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>500</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2903500</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>106743</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20200728</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10906月台北展NO80 李佳蓉 桃園大興 暫收39500</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-39500</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2943000</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>106868</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20200729</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10906月台北展NO113賴姿妤-桃園國強 暫收款    </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-59500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3002500</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>106904</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.47-溫家琳    </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3002000</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>106845</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.123-高逸青   </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3001500</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>106845</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.77-沈俊誠    </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3001000</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>106845</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.78-施淑貞    </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>500</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3000500</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>106845</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10906台北展NO85陳芸伯-頭份光華 暫收款$59500</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-59500</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>106971</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10906台北展NO30吳雅華-頂竹北民權 暫收款59500</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-59500</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3119500</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>106971</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>陳沛淇109年台北夏季加盟展-編號157-張維娜-退訂   </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>500</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3119000</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>106942</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20200801</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>沖蘆洲長安-設備款                     </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1208280</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1910720</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>107889</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20200803</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10906台北展NO.61-秦嫚君-大里大智 暫收款6萬  </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1970720</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>107026</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20200805</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10902台北展NO9-葉婕如-竹北六家嘉豐 工程款    </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-350000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2320720</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>107121</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.14-黃柏齊    </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>500</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2320220</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10906台北展NO2賴景亭/陳郡甫-頭份昌榮 暫收款6萬 </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2380220</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>107213</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>沖#10580710906台北展NO.124-黃建榮    </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>500</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2379720</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>沖#101014-10902台北展NO86-邱文俊     </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>500</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2379220</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.121-黃嘉敏   </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>500</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2378720</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20200807</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.32-陳立中    </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>500</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2378220</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20200809</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10810台北展NO.64-鐘玉純-板橋新民 暫收20萬  </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2578220</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>107236</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20200811</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10906台北展NO.117-蕭惠文-北市光復-暫收4萬  </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2618220</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>107525</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20200813</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t> 10902台北展NO50張書維/游冠琳-蘆洲長安/張保全匯</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-347780</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2966000</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>107411</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20200813</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10906台北展NO26王姵雯-樹林站前 暫收款$39500</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-39500</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3005500</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>107411</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>任宇晨台北夏展-編號:143-徐敏哲-退訂         </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>500</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3005000</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>107392</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.37-潘匡浥    </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>500</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3004500</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.20-陳兆麟    </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>500</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3004000</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.8-陽明真     </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>500</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3003500</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.142-蘇義朗   </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>500</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3003000</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>沖1#05807-10906台北展NO.57-俞秋池    </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>500</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3002500</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.96-盧映汝    </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>500</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3002000</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.31-黃昶閔    </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>500</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3001500</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>107338</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20200815</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10906台北展NO.111-許瑛倫 代尋2萬元      </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3021500</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>107491</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20200816</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10906月台北展NO80 李佳蓉 桃園大興 暫收工程32萬</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-320000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3341500</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>107492</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20200817</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10906月台北展NO131曾家祥 代尋2萬元       </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3361500</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>107536</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20200818</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>沖#101014-10902台北展NO29-彭彥龍     </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>500</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3361000</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>107510</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20200819</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10810台北展NO.64-鐘玉純-板橋新民 工程款20萬 </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3561000</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>107709</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20200821</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10906台北展NO.13-秦月泙/秦承平匯-板橋三民 工程</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-1270000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4831000</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>107823</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20200824</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.72-陳惠玲    </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>500</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4830500</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>107704</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20200824</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10902北展NO5-周政男退代尋扣5000        </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4825500</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>107611</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20200824</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>沖#101014-10902台北展NO.91-徐敏書    </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>500</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4825000</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>107704</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20200824</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10902北展NO5-周政男退代尋扣5000-實退15500</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>15500</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4809500</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>107613</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20200826</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10906台北展NO.61-秦嫚君-大里大智 工程款    </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-148323</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4957823</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>108019</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20200827</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>沖竹北六家嘉豐 -暫收                   </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>710000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4247823</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>108130</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20200827</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10906台北展NO.1-曾麗卿-太平旱溪西暫收6萬    </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4307823</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>108095</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10906北展NO50-林哲彥退代尋扣5000       </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4302823</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>107979</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>10902台北展NO39-周聖凱退代尋扣5000      </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4297823</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>107983</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>10906台北展NO.90-邱芸芸 代尋2萬        </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4317823</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>108145</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>沖#106348-10906北展NO49-江浚懿退代尋   </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4297823</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>108006</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>沖#105807-10906北展NO49-江浚懿$500  </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>500</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4297323</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>108006</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>沖106170-10906北展NO50林哲彥/劉麗萍退代尋 </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>15500</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4281823</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>107980</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.40-徐睿彣    </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>500</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4281323</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>107992</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20200828</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>沖#104375-10902台北展NO39-周聖凱退代尋扣 </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4266323</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>107982</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>沖板橋新民設備款                      </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1350500</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2915823</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>108326</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>阮煌文台北夏季展-NO.73張延凱+NO9許凱彥-退訂費用 </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2914823</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>108616</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10906月台北展NO113賴姿妤-桃園國強/賴燕璋匯 工程</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-700000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3614823</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>108190</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>黃凱祺加盟展客戶-退訂-NO.61秦曼君/曾麗卿      </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3613823</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>108338</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>10903台北展NO46胡雅雯-平鎮廣泰暫收-80萬    </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-800000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4413823</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>108491</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10906台北展NO.41-藍義淵-中壢後寮 暫收款    </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-39500</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4453323</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>108267</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>沖大里大智設備款                      </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>148323</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4305000</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>109522</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>10906台北展NO.41-藍義淵-中壢後寮 暫收款    </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-9000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4314000</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>108267</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20200901</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>沖大里大智教育訓練費                    </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4254000</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>109522</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20200902</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>10906台北展NO.26-王姵雯/陳柏毅 樹林站前 暫收款</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4314000</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>108248</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20200903</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10906台北展NO.26-王姵雯/陳柏毅 樹林站前 工程款</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-110000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4424000</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>108352</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20200904</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>沖#107491-10906台北展NO.111-許瑛倫   </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4404000</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>108314</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20200904</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.111-許瑛倫   </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>500</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4403500</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>108314</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20200909</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10906台北展NO.65-陳永淯/吳楚雲/梁詠晴-竹北嘉興</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4903500</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>108553</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>沖2281.001-中和自立拆除費用            </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4863500</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>109220</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10906台北展NO2賴景亭/陳郡甫-頭份昌榮 工程款80萬</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-800000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5663500</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>108615</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>10906台北展NO.117-蕭惠文-北市光復 工程款61萬</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-610000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6273500</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>108615</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20200911</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.149-付敏銳   </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>500</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6273000</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>108591</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20200914</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>10906台北展NO85陳芸伯-頭份光華 工程款65萬元  </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-650000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6923000</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>108726</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20200917</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10906月台北展NO80 李佳蓉 桃園大興 83萬    </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7753000</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>108859</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20200918</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.150-林鴻杰   </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>500</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7752500</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>108809</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20200918</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.4-劉文英     </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>500</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7752000</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>108809</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20200922</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10906台北展NO.1曾麗卿-太平旱西 工程款56萬   </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-560000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8312000</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>109141</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20200924</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>10906台北展NO.41-藍義淵-中壢後寮 工程款    </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-699000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9011000</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>109255</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20200928</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t> 10903台北展NO46胡雅雯 平鎮廣泰 工程款     </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-148800</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9159800</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>109423</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20200928</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10903台北展NO46胡雅雯 平鎮廣泰 工程款15萬   </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9309800</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>109367</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20200929</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>10906台北展NO90-邱芸芸 -三重正義南 暫收款4萬 </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9349800</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.5-吳小姐     </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>500</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9349300</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>109414</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.148-王榮權   </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>500</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9348800</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>109414</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>沖-10906台北展NO30吳雅華-頂竹北民權 暫收款6萬 </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9288800</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>110337</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.68-陳國玄/詹怡如</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>500</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9288300</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>109414</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>沖桃園大興設備款                      </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1205345</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>8082955</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>110481</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>沖平鎮廣泰設備款                      </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1159300</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6923655</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>110496</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>沖#95230-10810台北展NO.94-談奕寧     </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>500</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6923155</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>109414</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20200930</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>沖#108363-代付桃園大興瓦斯費$4655       </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>4655</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6918500</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>110482</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>0</t>
         </is>
